--- a/Task1_Cache/Data.xlsx
+++ b/Task1_Cache/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\toaxo\Desktop\Sem5\HPC\Parallel_Programming\Task1_Cache\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93C132B-172C-4DCF-94E2-0193732EB7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9916131-1CED-4111-A070-0C1319C5E41B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3285" yWindow="1320" windowWidth="21600" windowHeight="13350" xr2:uid="{B8FCE002-742A-4B42-8294-FC82F5D37CE3}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Elapsed Time (seconds)</t>
   </si>
@@ -91,6 +91,11 @@
   </si>
   <si>
     <t>Total L3 Cache: 32MB</t>
+  </si>
+  <si>
+    <t>После тестов, можно сделать вывод, что режимы:
+i,k,j и k,i,j быстрее остальных работают благодаря низкого Cache Miss Rate.
+j,k,i и k,j,i медленнее всего работают из-за высокого Cache Miss Rate.</t>
   </si>
 </sst>
 </file>
@@ -188,7 +193,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -286,6 +291,17 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -317,16 +333,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -337,17 +411,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -369,7 +443,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -380,6 +454,33 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2659,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3818B7EB-A866-42AA-A566-42572858DFE4}">
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="R19" sqref="R18:R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,9 +3172,49 @@
         <v>972.72650299999998</v>
       </c>
     </row>
+    <row r="25" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="25"/>
+    </row>
+    <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="26"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="28"/>
+    </row>
+    <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="26"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="28"/>
+    </row>
+    <row r="29" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="29"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="B20:H20"/>
+    <mergeCell ref="B26:H29"/>
     <mergeCell ref="B3:H3"/>
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B10:H10"/>
